--- a/Build/tempStatistic.xlsx
+++ b/Build/tempStatistic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2023/01/04</t>
   </si>
   <si>
     <t>2022/12/22</t>
@@ -1330,7 +1333,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -2079,10 +2082,10 @@
         <v>49</v>
       </c>
       <c r="B45" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2093,13 +2096,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2110,13 +2113,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B47" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2127,13 +2130,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2144,13 +2147,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B49" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2161,13 +2164,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B50" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2178,13 +2181,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2195,13 +2198,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B52" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2212,13 +2215,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B53" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2229,13 +2232,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B54" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2246,13 +2249,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B55" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2263,13 +2266,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B56" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2280,13 +2283,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2297,13 +2300,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2314,13 +2317,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2331,13 +2334,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2348,13 +2351,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2365,13 +2368,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B62" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2382,13 +2385,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B63" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2399,13 +2402,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B64" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -2416,13 +2419,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B65" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -2433,13 +2436,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B66" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -2450,13 +2453,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B67" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -2467,13 +2470,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B68" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -2484,13 +2487,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B69" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D69" s="0">
         <v>0</v>
@@ -2501,13 +2504,13 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B70" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D70" s="0">
         <v>0</v>
@@ -2518,13 +2521,13 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0</v>
-      </c>
-      <c r="C71" s="0">
-        <v>0</v>
       </c>
       <c r="D71" s="0">
         <v>0</v>
@@ -2581,6 +2584,23 @@
         <v>0</v>
       </c>
       <c r="E74" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/tempStatistic.xlsx
+++ b/Build/tempStatistic.xlsx
@@ -42,7 +42,7 @@
     <t>0%</t>
   </si>
   <si>
-    <t>2023/01/04</t>
+    <t>2023/05/24</t>
   </si>
   <si>
     <t>2022/12/22</t>
